--- a/documents/example_docs_school/учебный план 1 .xlsx
+++ b/documents/example_docs_school/учебный план 1 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_school/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F9A06B-E5F4-224F-8B60-6C93E64CF03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EACD79D-B56F-2A42-88B6-A301D94D8C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="8560" windowWidth="20300" windowHeight="11300" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="7620" yWindow="5160" windowWidth="20300" windowHeight="11300" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>количество часов в неделю</t>
   </si>
   <si>
-    <t xml:space="preserve">Русский язык </t>
-  </si>
-  <si>
     <t>Литературное чтение</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Физическая культура</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
